--- a/Guest_model.xlsx
+++ b/Guest_model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基金" sheetId="1" r:id="rId1"/>
@@ -964,13 +964,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -991,18 +991,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1015,13 +1022,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,86 +1041,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1136,7 +1058,85 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,7 +1181,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,49 +1331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,31 +1343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,85 +1355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,6 +1390,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1401,6 +1410,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,41 +1467,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1492,52 +1492,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
@@ -1546,94 +1525,115 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9298,8 +9298,8 @@
   <sheetPr/>
   <dimension ref="A1:AG26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="A1:AG25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -9315,52 +9315,26 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:32">
       <c r="A2"/>
-      <c r="B2" s="10"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
       <c r="L2" s="10"/>
-      <c r="M2"/>
       <c r="N2" s="10"/>
-      <c r="O2"/>
       <c r="P2" s="10"/>
-      <c r="Q2"/>
       <c r="R2" s="10"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
       <c r="Z2" s="10"/>
-      <c r="AA2"/>
       <c r="AB2" s="10"/>
-      <c r="AC2"/>
       <c r="AD2" s="10"/>
-      <c r="AE2"/>
       <c r="AF2" s="10"/>
     </row>
     <row r="3" spans="1:14">
@@ -9371,12 +9345,6 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
       <c r="N3"/>
     </row>
     <row r="4" spans="1:29">
@@ -9418,12 +9386,6 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
       <c r="N5"/>
     </row>
     <row r="6" spans="1:33">
@@ -9434,24 +9396,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
       <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
       <c r="AB6" s="13"/>
@@ -9469,12 +9414,6 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
       <c r="N7"/>
     </row>
     <row r="8" spans="1:29">
@@ -9485,24 +9424,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
@@ -9510,18 +9432,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
       <c r="N9"/>
     </row>
     <row r="10" spans="1:33">
@@ -9532,24 +9446,7 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
       <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
       <c r="Z10" s="13"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
@@ -9561,18 +9458,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
       <c r="N11"/>
     </row>
     <row r="12" spans="1:29">
@@ -9583,24 +9472,7 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
       <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
@@ -9608,18 +9480,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
       <c r="N13"/>
     </row>
     <row r="14" spans="1:14">
@@ -9630,28 +9494,14 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
       <c r="N15"/>
     </row>
     <row r="16" spans="1:23">
@@ -9662,37 +9512,16 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
       <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
       <c r="N17"/>
     </row>
     <row r="18" spans="1:27">
@@ -9703,22 +9532,7 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
       <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="12"/>
@@ -9732,12 +9546,6 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
       <c r="N19"/>
     </row>
     <row r="20" spans="1:14">
@@ -9752,8 +9560,6 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20"/>
-      <c r="M20"/>
       <c r="N20"/>
     </row>
     <row r="21" spans="1:14">
@@ -9764,12 +9570,6 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
       <c r="N21"/>
     </row>
     <row r="22" spans="1:21">
@@ -9780,12 +9580,6 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
@@ -9797,50 +9591,31 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23"/>
-      <c r="B23" s="10"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
       <c r="N23"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24"/>
-      <c r="B24" s="10"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
       <c r="L24" s="12"/>
       <c r="M24" s="11"/>
       <c r="N24"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25"/>
-      <c r="B25" s="10"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
       <c r="N25"/>
     </row>
     <row r="26" spans="4:5">
@@ -10893,16 +10668,16 @@
     <cfRule type="cellIs" dxfId="7" priority="517" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1209" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1210" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="693" stopIfTrue="1" operator="greaterThan">
@@ -10973,16 +10748,16 @@
     <cfRule type="cellIs" dxfId="7" priority="519" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="472" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="695" stopIfTrue="1" operator="greaterThan">
@@ -11029,10 +10804,10 @@
     <cfRule type="cellIs" dxfId="7" priority="525" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="589" stopIfTrue="1" operator="greaterThan">
@@ -11085,7 +10860,7 @@
     <cfRule type="cellIs" dxfId="7" priority="527" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="480" stopIfTrue="1" operator="lessThan">
@@ -11138,13 +10913,13 @@
     <cfRule type="cellIs" dxfId="6" priority="532" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1209" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1210" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="597" stopIfTrue="1" operator="greaterThan">
@@ -11191,13 +10966,13 @@
     <cfRule type="cellIs" dxfId="7" priority="423" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1209" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1210" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="488" stopIfTrue="1" operator="lessThan">
@@ -11244,19 +11019,19 @@
     <cfRule type="cellIs" dxfId="6" priority="428" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="540" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1209" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1209" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1210" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1210" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="605" stopIfTrue="1" operator="greaterThan">
@@ -11297,19 +11072,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4">
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1209" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1209" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1209" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1210" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1210" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="496" stopIfTrue="1" operator="lessThan">
@@ -11697,13 +11472,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4">
-    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1211" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="465" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1210" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1211" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="577" stopIfTrue="1" operator="lessThan">
@@ -11768,7 +11543,7 @@
     <cfRule type="cellIs" dxfId="6" priority="531" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1211" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1212" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="643" stopIfTrue="1" operator="greaterThan">
@@ -11833,13 +11608,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12">
-    <cfRule type="cellIs" dxfId="6" priority="1211" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1212" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="449" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1211" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1212" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="561" stopIfTrue="1" operator="lessThan">
@@ -11904,7 +11679,7 @@
     <cfRule type="cellIs" dxfId="6" priority="515" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="627" stopIfTrue="1" operator="greaterThan">
@@ -11948,19 +11723,19 @@
     <cfRule type="cellIs" dxfId="6" priority="460" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="572" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1212" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1212" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1212" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="637" stopIfTrue="1" operator="greaterThan">
@@ -12001,19 +11776,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC12">
-    <cfRule type="cellIs" dxfId="6" priority="1212" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1212" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1212" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1212" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1212" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="528" stopIfTrue="1" operator="lessThan">
@@ -12099,13 +11874,13 @@
     <cfRule type="cellIs" dxfId="7" priority="325" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="473" stopIfTrue="1" operator="lessThan">
@@ -12129,16 +11904,16 @@
     <cfRule type="cellIs" dxfId="7" priority="650" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="985" stopIfTrue="1" operator="greaterThan">
@@ -12212,13 +11987,13 @@
     <cfRule type="cellIs" dxfId="6" priority="427" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="539" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="651" stopIfTrue="1" operator="greaterThan">
@@ -12227,16 +12002,16 @@
     <cfRule type="cellIs" dxfId="7" priority="652" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="987" stopIfTrue="1" operator="greaterThan">
@@ -12295,13 +12070,13 @@
     <cfRule type="cellIs" dxfId="7" priority="333" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="481" stopIfTrue="1" operator="lessThan">
@@ -12393,10 +12168,10 @@
     <cfRule type="cellIs" dxfId="7" priority="335" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="482" stopIfTrue="1" operator="greaterThan">
@@ -12408,13 +12183,13 @@
     <cfRule type="cellIs" dxfId="6" priority="435" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="547" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="659" stopIfTrue="1" operator="greaterThan">
@@ -12449,16 +12224,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1213" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1213" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="497" stopIfTrue="1" operator="greaterThan">
@@ -12505,22 +12280,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1214" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1215" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1215" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1215" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1215" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="499" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1214" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1215" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="611" stopIfTrue="1" operator="greaterThan">
@@ -12561,13 +12336,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18">
-    <cfRule type="cellIs" dxfId="6" priority="1215" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1216" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="441" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1215" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1216" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="553" stopIfTrue="1" operator="lessThan">
@@ -12632,7 +12407,7 @@
     <cfRule type="cellIs" dxfId="6" priority="507" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="619" stopIfTrue="1" operator="greaterThan">
@@ -12676,19 +12451,19 @@
     <cfRule type="cellIs" dxfId="6" priority="452" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="564" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1216" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1216" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1216" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1217" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1217" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1217" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="629" stopIfTrue="1" operator="greaterThan">
@@ -12729,19 +12504,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA18">
-    <cfRule type="cellIs" dxfId="6" priority="1216" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1216" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1216" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1216" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1216" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1217" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1217" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1217" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1217" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1217" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="520" stopIfTrue="1" operator="lessThan">
@@ -12785,28 +12560,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="6" priority="1217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1217" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="489" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1217" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1217" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1217" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="665" stopIfTrue="1" operator="greaterThan">
@@ -12853,16 +12628,16 @@
     <cfRule type="cellIs" dxfId="7" priority="491" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="667" stopIfTrue="1" operator="greaterThan">
@@ -12903,22 +12678,22 @@
     <cfRule type="cellIs" dxfId="7" priority="393" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="673" stopIfTrue="1" operator="greaterThan">
@@ -12959,22 +12734,22 @@
     <cfRule type="cellIs" dxfId="7" priority="395" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="675" stopIfTrue="1" operator="greaterThan">
@@ -13009,22 +12784,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1218" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1218" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="689" stopIfTrue="1" operator="greaterThan">
@@ -13059,22 +12834,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22">
-    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1219" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1219" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="691" stopIfTrue="1" operator="greaterThan">
@@ -13115,22 +12890,22 @@
     <cfRule type="cellIs" dxfId="7" priority="409" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="697" stopIfTrue="1" operator="greaterThan">
@@ -13171,16 +12946,16 @@
     <cfRule type="cellIs" dxfId="7" priority="411" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="587" stopIfTrue="1" operator="greaterThan">
@@ -13227,16 +13002,16 @@
     <cfRule type="cellIs" dxfId="7" priority="417" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="593" stopIfTrue="1" operator="greaterThan">
@@ -13283,16 +13058,16 @@
     <cfRule type="cellIs" dxfId="7" priority="419" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="595" stopIfTrue="1" operator="greaterThan">
@@ -13336,19 +13111,19 @@
     <cfRule type="cellIs" dxfId="6" priority="424" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="601" stopIfTrue="1" operator="greaterThan">
@@ -13389,22 +13164,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22">
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1220" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1220" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="603" stopIfTrue="1" operator="greaterThan">
@@ -13451,22 +13226,22 @@
     <cfRule type="cellIs" dxfId="7" priority="401" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1222" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1222" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1222" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1222" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1222" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="681" stopIfTrue="1" operator="greaterThan">
@@ -13507,22 +13282,22 @@
     <cfRule type="cellIs" dxfId="7" priority="403" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1221" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1221" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1222" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1222" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1222" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1222" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1222" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1222" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="683" stopIfTrue="1" operator="greaterThan">
@@ -13606,8 +13381,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -13621,9 +13396,6 @@
     <row r="1" spans="1:8">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -13631,9 +13403,6 @@
     <row r="2" spans="1:8">
       <c r="A2"/>
       <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -13641,9 +13410,6 @@
     <row r="3" spans="1:8">
       <c r="A3"/>
       <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -13651,9 +13417,6 @@
     <row r="4" spans="1:8">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -13661,9 +13424,6 @@
     <row r="5" spans="1:8">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
@@ -13671,9 +13431,6 @@
     <row r="6" spans="1:8">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -13681,9 +13438,6 @@
     <row r="7" ht="201.6" customHeight="1" spans="1:8">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" s="9"/>
@@ -13691,9 +13445,6 @@
     <row r="8" ht="43.2" customHeight="1" spans="1:8">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" s="9"/>
